--- a/import_user_sample.xlsx
+++ b/import_user_sample.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\新笔记本 2017.2.11起\工程项目\清华大学电子工程系奖学金申报系统\code\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\新笔记本 2017.2.11起\工程项目\清华大学电子工程系奖学金申报系统\代码\前端\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,20 +24,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="66">
   <si>
     <t>无37</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>无38</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>无39</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>undergraduate</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -50,44 +42,224 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>林一</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>舒二</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>徐三</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>陈四</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>无310</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>graduate</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>lin1@mails.tsinghua.edu.cn</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>xu3@mails.tsinghua.edu.cn</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>shu2@mails.tsinghua.edu.cn</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>chen4@mails.tsinghua.edu.cn</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>魏一</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张二</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刘三</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>熊四</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刘五</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>郑六</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>何七</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张八</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>麻九</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>穆十</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张十一</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>庄十二</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄十三</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>岑十四</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>白十五</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刘十六</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>臧十七</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>杨十八</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刘十九</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>赵二十</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>林二十一</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>舒二十二</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陈二十三</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>徐二十四</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>翟二十五</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张二十六</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>徐二十七</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>周二十八</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王二十九</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无48</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无59</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无67</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test1@mails.tsinghua.edu.cn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test2@mails.tsinghua.edu.cn</t>
+  </si>
+  <si>
+    <t>test3@mails.tsinghua.edu.cn</t>
+  </si>
+  <si>
+    <t>test4@mails.tsinghua.edu.cn</t>
+  </si>
+  <si>
+    <t>test5@mails.tsinghua.edu.cn</t>
+  </si>
+  <si>
+    <t>test6@mails.tsinghua.edu.cn</t>
+  </si>
+  <si>
+    <t>test7@mails.tsinghua.edu.cn</t>
+  </si>
+  <si>
+    <t>test8@mails.tsinghua.edu.cn</t>
+  </si>
+  <si>
+    <t>test9@mails.tsinghua.edu.cn</t>
+  </si>
+  <si>
+    <t>test10@mails.tsinghua.edu.cn</t>
+  </si>
+  <si>
+    <t>test11@mails.tsinghua.edu.cn</t>
+  </si>
+  <si>
+    <t>test12@mails.tsinghua.edu.cn</t>
+  </si>
+  <si>
+    <t>test13@mails.tsinghua.edu.cn</t>
+  </si>
+  <si>
+    <t>test14@mails.tsinghua.edu.cn</t>
+  </si>
+  <si>
+    <t>test15@mails.tsinghua.edu.cn</t>
+  </si>
+  <si>
+    <t>test16@mails.tsinghua.edu.cn</t>
+  </si>
+  <si>
+    <t>test17@mails.tsinghua.edu.cn</t>
+  </si>
+  <si>
+    <t>test18@mails.tsinghua.edu.cn</t>
+  </si>
+  <si>
+    <t>test19@mails.tsinghua.edu.cn</t>
+  </si>
+  <si>
+    <t>test20@mails.tsinghua.edu.cn</t>
+  </si>
+  <si>
+    <t>test21@mails.tsinghua.edu.cn</t>
+  </si>
+  <si>
+    <t>test22@mails.tsinghua.edu.cn</t>
+  </si>
+  <si>
+    <t>test23@mails.tsinghua.edu.cn</t>
+  </si>
+  <si>
+    <t>test24@mails.tsinghua.edu.cn</t>
+  </si>
+  <si>
+    <t>test25@mails.tsinghua.edu.cn</t>
+  </si>
+  <si>
+    <t>test26@mails.tsinghua.edu.cn</t>
+  </si>
+  <si>
+    <t>test27@mails.tsinghua.edu.cn</t>
+  </si>
+  <si>
+    <t>test28@mails.tsinghua.edu.cn</t>
+  </si>
+  <si>
+    <t>test29@mails.tsinghua.edu.cn</t>
   </si>
 </sst>
 </file>
@@ -433,10 +605,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -449,7 +621,7 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B1">
         <v>2013011001</v>
@@ -461,93 +633,666 @@
         <v>2013</v>
       </c>
       <c r="E1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F1">
         <v>18800000000</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>12</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B2">
         <v>2013011002</v>
       </c>
       <c r="C2" t="s">
-        <v>1</v>
+        <v>34</v>
       </c>
       <c r="D2">
         <v>2014</v>
       </c>
       <c r="E2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>18800000001</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>14</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B3">
         <v>2013011003</v>
       </c>
       <c r="C3" t="s">
-        <v>2</v>
+        <v>35</v>
       </c>
       <c r="D3">
         <v>2015</v>
       </c>
       <c r="E3" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>18800000002</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>13</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B4">
         <v>2013011004</v>
       </c>
       <c r="C4" t="s">
-        <v>10</v>
+        <v>36</v>
       </c>
       <c r="D4">
         <v>2016</v>
       </c>
       <c r="E4" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="F4">
         <v>18800000003</v>
       </c>
       <c r="G4" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5">
+        <v>2013011005</v>
+      </c>
+      <c r="C5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>2013</v>
+      </c>
+      <c r="E5" t="s">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>18800000004</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6">
+        <v>2013011006</v>
+      </c>
+      <c r="C6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D6">
+        <v>2014</v>
+      </c>
+      <c r="E6" t="s">
+        <v>2</v>
+      </c>
+      <c r="F6">
+        <v>18800000005</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7">
+        <v>2013011007</v>
+      </c>
+      <c r="C7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D7">
+        <v>2015</v>
+      </c>
+      <c r="E7" t="s">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>18800000006</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8">
+        <v>2013011008</v>
+      </c>
+      <c r="C8" t="s">
+        <v>36</v>
+      </c>
+      <c r="D8">
+        <v>2016</v>
+      </c>
+      <c r="E8" t="s">
+        <v>4</v>
+      </c>
+      <c r="F8">
+        <v>18800000007</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9">
+        <v>2013011009</v>
+      </c>
+      <c r="C9" t="s">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>2013</v>
+      </c>
+      <c r="E9" t="s">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>18800000008</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10">
+        <v>2013011010</v>
+      </c>
+      <c r="C10" t="s">
+        <v>34</v>
+      </c>
+      <c r="D10">
+        <v>2014</v>
+      </c>
+      <c r="E10" t="s">
+        <v>2</v>
+      </c>
+      <c r="F10">
+        <v>18800000009</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A11" t="s">
         <v>15</v>
+      </c>
+      <c r="B11">
+        <v>2013011011</v>
+      </c>
+      <c r="C11" t="s">
+        <v>35</v>
+      </c>
+      <c r="D11">
+        <v>2015</v>
+      </c>
+      <c r="E11" t="s">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>18800000010</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12">
+        <v>2013011012</v>
+      </c>
+      <c r="C12" t="s">
+        <v>36</v>
+      </c>
+      <c r="D12">
+        <v>2016</v>
+      </c>
+      <c r="E12" t="s">
+        <v>4</v>
+      </c>
+      <c r="F12">
+        <v>18800000011</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A13" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13">
+        <v>2013011013</v>
+      </c>
+      <c r="C13" t="s">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>2013</v>
+      </c>
+      <c r="E13" t="s">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>18800000012</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A14" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14">
+        <v>2013011014</v>
+      </c>
+      <c r="C14" t="s">
+        <v>34</v>
+      </c>
+      <c r="D14">
+        <v>2014</v>
+      </c>
+      <c r="E14" t="s">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>18800000013</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A15" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15">
+        <v>2013011015</v>
+      </c>
+      <c r="C15" t="s">
+        <v>35</v>
+      </c>
+      <c r="D15">
+        <v>2015</v>
+      </c>
+      <c r="E15" t="s">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>18800000014</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A16" t="s">
+        <v>20</v>
+      </c>
+      <c r="B16">
+        <v>2013011016</v>
+      </c>
+      <c r="C16" t="s">
+        <v>36</v>
+      </c>
+      <c r="D16">
+        <v>2016</v>
+      </c>
+      <c r="E16" t="s">
+        <v>4</v>
+      </c>
+      <c r="F16">
+        <v>18800000015</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A17" t="s">
+        <v>21</v>
+      </c>
+      <c r="B17">
+        <v>2013011017</v>
+      </c>
+      <c r="C17" t="s">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>2013</v>
+      </c>
+      <c r="E17" t="s">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>18800000016</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18">
+        <v>2013011018</v>
+      </c>
+      <c r="C18" t="s">
+        <v>34</v>
+      </c>
+      <c r="D18">
+        <v>2014</v>
+      </c>
+      <c r="E18" t="s">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>18800000017</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19">
+        <v>2013011019</v>
+      </c>
+      <c r="C19" t="s">
+        <v>35</v>
+      </c>
+      <c r="D19">
+        <v>2015</v>
+      </c>
+      <c r="E19" t="s">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>18800000018</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20">
+        <v>2013011020</v>
+      </c>
+      <c r="C20" t="s">
+        <v>36</v>
+      </c>
+      <c r="D20">
+        <v>2016</v>
+      </c>
+      <c r="E20" t="s">
+        <v>4</v>
+      </c>
+      <c r="F20">
+        <v>18800000019</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A21" t="s">
+        <v>25</v>
+      </c>
+      <c r="B21">
+        <v>2013011021</v>
+      </c>
+      <c r="C21" t="s">
+        <v>0</v>
+      </c>
+      <c r="D21">
+        <v>2013</v>
+      </c>
+      <c r="E21" t="s">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>18800000020</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A22" t="s">
+        <v>26</v>
+      </c>
+      <c r="B22">
+        <v>2013011022</v>
+      </c>
+      <c r="C22" t="s">
+        <v>34</v>
+      </c>
+      <c r="D22">
+        <v>2014</v>
+      </c>
+      <c r="E22" t="s">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>18800000021</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A23" t="s">
+        <v>27</v>
+      </c>
+      <c r="B23">
+        <v>2013011023</v>
+      </c>
+      <c r="C23" t="s">
+        <v>35</v>
+      </c>
+      <c r="D23">
+        <v>2015</v>
+      </c>
+      <c r="E23" t="s">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>18800000022</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A24" t="s">
+        <v>28</v>
+      </c>
+      <c r="B24">
+        <v>2013011024</v>
+      </c>
+      <c r="C24" t="s">
+        <v>36</v>
+      </c>
+      <c r="D24">
+        <v>2016</v>
+      </c>
+      <c r="E24" t="s">
+        <v>4</v>
+      </c>
+      <c r="F24">
+        <v>18800000023</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A25" t="s">
+        <v>29</v>
+      </c>
+      <c r="B25">
+        <v>2013011025</v>
+      </c>
+      <c r="C25" t="s">
+        <v>0</v>
+      </c>
+      <c r="D25">
+        <v>2013</v>
+      </c>
+      <c r="E25" t="s">
+        <v>1</v>
+      </c>
+      <c r="F25">
+        <v>18800000024</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A26" t="s">
+        <v>30</v>
+      </c>
+      <c r="B26">
+        <v>2013011026</v>
+      </c>
+      <c r="C26" t="s">
+        <v>34</v>
+      </c>
+      <c r="D26">
+        <v>2014</v>
+      </c>
+      <c r="E26" t="s">
+        <v>2</v>
+      </c>
+      <c r="F26">
+        <v>18800000025</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A27" t="s">
+        <v>31</v>
+      </c>
+      <c r="B27">
+        <v>2013011027</v>
+      </c>
+      <c r="C27" t="s">
+        <v>35</v>
+      </c>
+      <c r="D27">
+        <v>2015</v>
+      </c>
+      <c r="E27" t="s">
+        <v>3</v>
+      </c>
+      <c r="F27">
+        <v>18800000026</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A28" t="s">
+        <v>32</v>
+      </c>
+      <c r="B28">
+        <v>2013011028</v>
+      </c>
+      <c r="C28" t="s">
+        <v>36</v>
+      </c>
+      <c r="D28">
+        <v>2016</v>
+      </c>
+      <c r="E28" t="s">
+        <v>4</v>
+      </c>
+      <c r="F28">
+        <v>18800000027</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A29" t="s">
+        <v>33</v>
+      </c>
+      <c r="B29">
+        <v>2013011029</v>
+      </c>
+      <c r="C29" t="s">
+        <v>0</v>
+      </c>
+      <c r="D29">
+        <v>2013</v>
+      </c>
+      <c r="E29" t="s">
+        <v>1</v>
+      </c>
+      <c r="F29">
+        <v>18800000028</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>65</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="G1" r:id="rId1"/>
-    <hyperlink ref="G2" r:id="rId2"/>
-    <hyperlink ref="G3" r:id="rId3"/>
-    <hyperlink ref="G4" r:id="rId4"/>
+    <hyperlink ref="G2:G29" r:id="rId2" display="test1@mails.tsinghua.edu.cn"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId3"/>
 </worksheet>
 </file>
--- a/import_user_sample.xlsx
+++ b/import_user_sample.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\新笔记本 2017.2.11起\工程项目\清华大学电子工程系奖学金申报系统\代码\前端\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\新笔记本 2017.2.12起\工程项目\清华大学电子工程系奖学金申报系统\代码\前端\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="70">
   <si>
     <t>无37</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -260,6 +260,22 @@
   </si>
   <si>
     <t>test29@mails.tsinghua.edu.cn</t>
+  </si>
+  <si>
+    <t>吴老师</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>faculty</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test30@mails.tsinghua.edu.cn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -605,10 +621,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G29"/>
+  <dimension ref="A1:G30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="I23" sqref="I23"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1286,13 +1302,37 @@
         <v>65</v>
       </c>
     </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A30" t="s">
+        <v>66</v>
+      </c>
+      <c r="B30">
+        <v>1101010111</v>
+      </c>
+      <c r="C30" t="s">
+        <v>67</v>
+      </c>
+      <c r="D30">
+        <v>2013</v>
+      </c>
+      <c r="E30" t="s">
+        <v>68</v>
+      </c>
+      <c r="F30">
+        <v>18800000029</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="G1" r:id="rId1"/>
     <hyperlink ref="G2:G29" r:id="rId2" display="test1@mails.tsinghua.edu.cn"/>
+    <hyperlink ref="G30" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId4"/>
 </worksheet>
 </file>